--- a/biology/Zoologie/Détroquage/Détroquage.xlsx
+++ b/biology/Zoologie/Détroquage/Détroquage.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>D%C3%A9troquage</t>
+          <t>Détroquage</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,13 +490,15 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">En ostréiculture, le détroquage est l'opération consistant à :
-détacher les jeunes huîtres (généralement de 8 à 10 mois) du collecteur qui a permis le captage[1]. Cette étape s'inscrit en amont de la culture des huitres, après le captage à l'aide de collecteur et avant l'élevage et l'affinage[1], on parle de détroquage précoce[2].
-détacher les huitres de leur support d'élevage et séparer celle que se sont accolées[3],[4].
-Cette opération était traditionnellement réalisée par les "femmes de cabanes"[1].
-Le terme détroquage s'applique également à toutes les cultures de mollusques comme les moules[5].
+détacher les jeunes huîtres (généralement de 8 à 10 mois) du collecteur qui a permis le captage. Cette étape s'inscrit en amont de la culture des huitres, après le captage à l'aide de collecteur et avant l'élevage et l'affinage, on parle de détroquage précoce.
+détacher les huitres de leur support d'élevage et séparer celle que se sont accolées,.
+Cette opération était traditionnellement réalisée par les "femmes de cabanes".
+Le terme détroquage s'applique également à toutes les cultures de mollusques comme les moules.
 </t>
         </is>
       </c>
